--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_APCS.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_APCS.XLSX
@@ -133,10 +133,10 @@
     <t>JOSE ANTONIO DE BARROS</t>
   </si>
   <si>
-    <t>AMARILDO ROSA PEREIRA</t>
+    <t>ALLAN NEVES DE PAULA</t>
   </si>
   <si>
-    <t>ALLAN NEVES DE PAULA</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -151,10 +151,10 @@
     <t>2459</t>
   </si>
   <si>
-    <t>2727</t>
+    <t>3552</t>
   </si>
   <si>
-    <t>3552</t>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -173,10 +173,10 @@
     <t>IMC_APCS</t>
   </si>
   <si>
-    <t>JOSE ANTONIO DE BARROS</t>
+    <t>ALLAN NEVES DE PAULA</t>
   </si>
   <si>
-    <t>Matr.: 2459</t>
+    <t>Matr.: 3552</t>
   </si>
   <si>
     <r>
@@ -3524,11 +3524,11 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>AMARILDO ROSA PEREIRA</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
@@ -3551,11 +3551,11 @@
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>AMARILDO ROSA PEREIRA</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
@@ -3575,11 +3575,11 @@
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>AMARILDO ROSA PEREIRA</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3599,11 +3599,11 @@
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>AMARILDO ROSA PEREIRA</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3904,11 +3904,11 @@
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>2727</v>
+        <v>3552</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
@@ -3931,11 +3931,11 @@
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>2727</v>
+        <v>3552</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
@@ -3955,11 +3955,11 @@
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>2727</v>
+        <v>3552</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3979,11 +3979,11 @@
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>2727</v>
+        <v>3552</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6326,7 +6326,7 @@
       <c r="E6" s="115"/>
       <c r="F6" s="104" t="str">
         <f>'Segunda a Sexta'!F6:L6</f>
-        <v>JOSE ANTONIO DE BARROS</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="G6" s="105"/>
       <c r="H6" s="105"/>
@@ -6415,7 +6415,7 @@
       <c r="E8" s="115"/>
       <c r="F8" s="104" t="str">
         <f>'Segunda a Sexta'!F8:L8</f>
-        <v>Matr.: 2459</v>
+        <v>Matr.: 3552</v>
       </c>
       <c r="G8" s="105"/>
       <c r="H8" s="105"/>
@@ -6609,11 +6609,11 @@
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>AMARILDO ROSA PEREIRA</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6634,11 +6634,11 @@
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>AMARILDO ROSA PEREIRA</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
@@ -6941,11 +6941,11 @@
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2727</v>
+        <v>3552</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
@@ -6966,11 +6966,11 @@
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>2727</v>
+        <v>3552</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_APCS.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_APCS.XLSX
@@ -130,9 +130,6 @@
     <t>Domingo</t>
   </si>
   <si>
-    <t>JOSE ANTONIO DE BARROS</t>
-  </si>
-  <si>
     <t>ALLAN NEVES DE PAULA</t>
   </si>
   <si>
@@ -148,10 +145,13 @@
     <t> </t>
   </si>
   <si>
-    <t>2459</t>
+    <t> </t>
   </si>
   <si>
     <t>3552</t>
+  </si>
+  <si>
+    <t> </t>
   </si>
   <si>
     <t> </t>
@@ -3519,12 +3519,12 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>JOSE ANTONIO DE BARROS</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
@@ -3545,13 +3545,13 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>JOSE ANTONIO DE BARROS</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
@@ -3571,11 +3571,11 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>JOSE ANTONIO DE BARROS</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3595,11 +3595,11 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>JOSE ANTONIO DE BARROS</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3899,12 +3899,12 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>2459</v>
+        <v>3552</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
@@ -3925,13 +3925,13 @@
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>2459</v>
+        <v>3552</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
@@ -3951,11 +3951,11 @@
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>2459</v>
+        <v>3552</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3975,11 +3975,11 @@
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>2459</v>
+        <v>3552</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6605,11 +6605,11 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>JOSE ANTONIO DE BARROS</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
@@ -6629,12 +6629,12 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>JOSE ANTONIO DE BARROS</v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v> </v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
@@ -6937,11 +6937,11 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>2459</v>
+        <v>3552</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
@@ -6961,12 +6961,12 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>2459</v>
+        <v>3552</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v>3552</v>
+        <v> </v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>

--- a/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_APCS.XLSX
+++ b/outputs/sisaprophelper#autoaprop/autoapropxlsx/IMC_APCS.XLSX
@@ -130,7 +130,16 @@
     <t>Domingo</t>
   </si>
   <si>
+    <t>GEORGIANA KALAF RABELLO</t>
+  </si>
+  <si>
     <t>ALLAN NEVES DE PAULA</t>
+  </si>
+  <si>
+    <t>ALINE FERREIRA DA SILVA</t>
+  </si>
+  <si>
+    <t>ELISÂNGELA SILVA DE SOUZA</t>
   </si>
   <si>
     <t> </t>
@@ -139,25 +148,16 @@
     <t> </t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
+    <t>3486</t>
   </si>
   <si>
     <t>3552</t>
   </si>
   <si>
-    <t> </t>
+    <t>4019</t>
   </si>
   <si>
-    <t> </t>
-  </si>
-  <si>
-    <t> </t>
+    <t>4192</t>
   </si>
   <si>
     <t> </t>
@@ -3519,20 +3519,20 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>G12</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v>GEORGIANA KALAF RABELLO</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>H12</f>
-        <v> </v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="P12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>ALINE FERREIRA DA SILVA</v>
       </c>
       <c r="Q12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>ELISÂNGELA SILVA DE SOUZA</v>
       </c>
       <c r="R12" s="161" t="str">
         <f>K12</f>
@@ -3545,21 +3545,21 @@
       <c r="T12" s="189"/>
       <c r="U12" s="174" t="str">
         <f>G12</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v>GEORGIANA KALAF RABELLO</v>
       </c>
       <c r="V12" s="161"/>
       <c r="W12" s="161"/>
       <c r="X12" s="161" t="str">
         <f>H12</f>
-        <v> </v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="Y12" s="161" t="str">
         <f>I12</f>
-        <v> </v>
+        <v>ALINE FERREIRA DA SILVA</v>
       </c>
       <c r="Z12" s="161" t="str">
         <f>J12</f>
-        <v> </v>
+        <v>ELISÂNGELA SILVA DE SOUZA</v>
       </c>
       <c r="AA12" s="161" t="str">
         <f>K12</f>
@@ -3571,19 +3571,19 @@
       </c>
       <c r="AC12" s="181" t="str">
         <f t="shared" ref="AC12:AH12" si="0">G12</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v>GEORGIANA KALAF RABELLO</v>
       </c>
       <c r="AD12" s="183" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="AE12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>ALINE FERREIRA DA SILVA</v>
       </c>
       <c r="AF12" s="161" t="str">
         <f t="shared" si="0"/>
-        <v> </v>
+        <v>ELISÂNGELA SILVA DE SOUZA</v>
       </c>
       <c r="AG12" s="161" t="str">
         <f t="shared" si="0"/>
@@ -3595,19 +3595,19 @@
       </c>
       <c r="AI12" s="185" t="str">
         <f t="shared" ref="AI12:AN12" si="1">G12</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v>GEORGIANA KALAF RABELLO</v>
       </c>
       <c r="AJ12" s="183" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="AK12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>ALINE FERREIRA DA SILVA</v>
       </c>
       <c r="AL12" s="161" t="str">
         <f t="shared" si="1"/>
-        <v> </v>
+        <v>ELISÂNGELA SILVA DE SOUZA</v>
       </c>
       <c r="AM12" s="161" t="str">
         <f t="shared" si="1"/>
@@ -3899,20 +3899,20 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>G19</f>
-        <v>3552</v>
+        <v>3486</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="172" t="str">
         <f>H19</f>
-        <v> </v>
+        <v>3552</v>
       </c>
       <c r="P19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>4019</v>
       </c>
       <c r="Q19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>4192</v>
       </c>
       <c r="R19" s="172" t="str">
         <f>K19</f>
@@ -3925,21 +3925,21 @@
       <c r="T19" s="209"/>
       <c r="U19" s="191" t="str">
         <f>G19</f>
-        <v>3552</v>
+        <v>3486</v>
       </c>
       <c r="V19" s="172"/>
       <c r="W19" s="172"/>
       <c r="X19" s="172" t="str">
         <f>H19</f>
-        <v> </v>
+        <v>3552</v>
       </c>
       <c r="Y19" s="172" t="str">
         <f>I19</f>
-        <v> </v>
+        <v>4019</v>
       </c>
       <c r="Z19" s="172" t="str">
         <f>J19</f>
-        <v> </v>
+        <v>4192</v>
       </c>
       <c r="AA19" s="172" t="str">
         <f>K19</f>
@@ -3951,19 +3951,19 @@
       </c>
       <c r="AC19" s="207" t="str">
         <f t="shared" ref="AC19:AH19" si="2">G19</f>
-        <v>3552</v>
+        <v>3486</v>
       </c>
       <c r="AD19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>3552</v>
       </c>
       <c r="AE19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4019</v>
       </c>
       <c r="AF19" s="172" t="str">
         <f t="shared" si="2"/>
-        <v> </v>
+        <v>4192</v>
       </c>
       <c r="AG19" s="172" t="str">
         <f t="shared" si="2"/>
@@ -3975,19 +3975,19 @@
       </c>
       <c r="AI19" s="205" t="str">
         <f t="shared" ref="AI19:AN19" si="3">G19</f>
-        <v>3552</v>
+        <v>3486</v>
       </c>
       <c r="AJ19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>3552</v>
       </c>
       <c r="AK19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4019</v>
       </c>
       <c r="AL19" s="172" t="str">
         <f t="shared" si="3"/>
-        <v> </v>
+        <v>4192</v>
       </c>
       <c r="AM19" s="172" t="str">
         <f t="shared" si="3"/>
@@ -6605,19 +6605,19 @@
       <c r="F12" s="159"/>
       <c r="G12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v>GEORGIANA KALAF RABELLO</v>
       </c>
       <c r="H12" s="161" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v> </v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="I12" s="161" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>ALINE FERREIRA DA SILVA</v>
       </c>
       <c r="J12" s="161" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>ELISÂNGELA SILVA DE SOUZA</v>
       </c>
       <c r="K12" s="161" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6629,20 +6629,20 @@
       </c>
       <c r="M12" s="174" t="str">
         <f>'Segunda a Sexta'!G12:G18</f>
-        <v>ALLAN NEVES DE PAULA</v>
+        <v>GEORGIANA KALAF RABELLO</v>
       </c>
       <c r="N12" s="161"/>
       <c r="O12" s="187" t="str">
         <f>'Segunda a Sexta'!H12:H18</f>
-        <v> </v>
+        <v>ALLAN NEVES DE PAULA</v>
       </c>
       <c r="P12" s="187" t="str">
         <f>'Segunda a Sexta'!I12:I18</f>
-        <v> </v>
+        <v>ALINE FERREIRA DA SILVA</v>
       </c>
       <c r="Q12" s="187" t="str">
         <f>'Segunda a Sexta'!J12:J18</f>
-        <v> </v>
+        <v>ELISÂNGELA SILVA DE SOUZA</v>
       </c>
       <c r="R12" s="187" t="str">
         <f>'Segunda a Sexta'!K12:K18</f>
@@ -6937,19 +6937,19 @@
       </c>
       <c r="G19" s="258" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>3552</v>
+        <v>3486</v>
       </c>
       <c r="H19" s="168" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v> </v>
+        <v>3552</v>
       </c>
       <c r="I19" s="168" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>4019</v>
       </c>
       <c r="J19" s="170" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>4192</v>
       </c>
       <c r="K19" s="172" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
@@ -6961,20 +6961,20 @@
       </c>
       <c r="M19" s="191" t="str">
         <f>'Segunda a Sexta'!G19:G20</f>
-        <v>3552</v>
+        <v>3486</v>
       </c>
       <c r="N19" s="172"/>
       <c r="O19" s="257" t="str">
         <f>'Segunda a Sexta'!H19:H20</f>
-        <v> </v>
+        <v>3552</v>
       </c>
       <c r="P19" s="257" t="str">
         <f>'Segunda a Sexta'!I19:I20</f>
-        <v> </v>
+        <v>4019</v>
       </c>
       <c r="Q19" s="257" t="str">
         <f>'Segunda a Sexta'!J19:J20</f>
-        <v> </v>
+        <v>4192</v>
       </c>
       <c r="R19" s="257" t="str">
         <f>'Segunda a Sexta'!K19:K20</f>
